--- a/QuanLyKho/Templates/phieunhap.xlsx
+++ b/QuanLyKho/Templates/phieunhap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="phieunhap" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,6 +86,15 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,13 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,11 +221,177 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -236,7 +408,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -252,167 +424,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -429,15 +440,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F8" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A7:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="STT" dataDxfId="6"/>
-    <tableColumn id="2" name="Tên vật tư" dataDxfId="5"/>
-    <tableColumn id="3" name="Đơn vị tính" dataDxfId="4"/>
-    <tableColumn id="4" name="Số lượng" dataDxfId="3"/>
-    <tableColumn id="5" name="Đơn giá" dataDxfId="2"/>
-    <tableColumn id="6" name="Thành tiền" dataDxfId="1"/>
+    <tableColumn id="1" name="STT" dataDxfId="5"/>
+    <tableColumn id="2" name="Tên vật tư" dataDxfId="4"/>
+    <tableColumn id="3" name="Đơn vị tính" dataDxfId="3"/>
+    <tableColumn id="4" name="Số lượng" dataDxfId="2"/>
+    <tableColumn id="5" name="Đơn giá" dataDxfId="1"/>
+    <tableColumn id="6" name="Thành tiền" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,10 +529,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,7 +563,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -729,97 +738,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="20.25">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" s="2" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
